--- a/biology/Zoologie/Au_bonheur_des_chiens/Au_bonheur_des_chiens.xlsx
+++ b/biology/Zoologie/Au_bonheur_des_chiens/Au_bonheur_des_chiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au bonheur des chiens (C'era un castello con 40 cani) est un film franco-hispano-belgo-italien réalisé par Duccio Tessari et sorti en 1990[1]. Il s'agit d'une adaptation cinématographique du roman homonyme de Remo Forlani publié en 1982 chez Ramsay.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au bonheur des chiens (C'era un castello con 40 cani) est un film franco-hispano-belgo-italien réalisé par Duccio Tessari et sorti en 1990. Il s'agit d'une adaptation cinématographique du roman homonyme de Remo Forlani publié en 1982 chez Ramsay.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Titre français : Au bonheur des chiens[2]
-Titre original : C'era un castello con 40 cani[3]
+Titre français : Au bonheur des chiens
+Titre original : C'era un castello con 40 cani
 Réalisation : Duccio Tessari
 Assistants à la réalisation : Bernard Bolzinger, Lorella De Luca
 Scénario : Marcello Coscia, Ennio De Concini, Mahnahén Velasco d'après le roman de Remo Forlani
@@ -556,11 +572,11 @@
 Pays de production :  Italie -  France -  Espagne -  Belgique
 Langue de tournage : italien
 Format : Couleur - Son stéréo - 35 mm
-Durée : 98 minutes (1h38)[3]
-Genre : comédie animalière [2]
+Durée : 98 minutes (1h38)
+Genre : comédie animalière 
 Dates de sortie :
 Italie : 5 janvier 1990
-France : 13 juin 1990[2]</t>
+France : 13 juin 1990</t>
         </is>
       </c>
     </row>
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peter Ustinov : le vétérinaire Muggione
 Delphine Forest : Violetta
@@ -608,9 +626,43 @@
 Antonio Maimone : Tony
 Gino Clemente : Gino
 Nicola Pietrangeli : le président
-Micaela Pignatelli : Sveva
-Les chiens
-Trente-sept chiens ont été utilisés pour le film, tous entraînés par le « Centro Attività Cinofile La Valletta » de Rome (quartier Parioli). Certains d'entre eux sont les suivants :
+Micaela Pignatelli : Sveva</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Au_bonheur_des_chiens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Au_bonheur_des_chiens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les chiens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Trente-sept chiens ont été utilisés pour le film, tous entraînés par le « Centro Attività Cinofile La Valletta » de Rome (quartier Parioli). Certains d'entre eux sont les suivants :
 le labrador Scherlok : Ollio ;
 le chien croisé Gastone : Stanlio ;
 le dobermann Indiana Kajowa del Garaf : Sentinella ;
